--- a/FPS_Resolution Properties.xlsx
+++ b/FPS_Resolution Properties.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jabra4-my.sharepoint.com/personal/extktran_jabra_com/Documents/Documents/TestServer/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jabra4-my.sharepoint.com/personal/khtran_jabra_com/Documents/Documents/TestServer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{03290DD3-5E8D-468C-BC33-806444FAF3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{153E076C-77ED-443B-8AA0-F55061287D1F}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{03290DD3-5E8D-468C-BC33-806444FAF3B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BDE3BE51-870B-4C35-A640-E17EACF0BBC1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{897E11B2-4245-4644-8C3F-46BFAEF63DEE}"/>
   </bookViews>
@@ -116,10 +116,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,14 +439,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I24" sqref="I24"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -456,159 +456,159 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+      <c r="A3" s="3"/>
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="2">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
